--- a/ARC1.1.0ChangesLog.xlsx
+++ b/ARC1.1.0ChangesLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sduquevallejo\Documents\GitHub\DataPlatform\ARCH\ARCH1.1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sduquevallejo\Documents\GitHub\ARC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9AB078-8ECB-424B-966F-0F669B412EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472849F0-2D7A-4856-8F2F-2C2F4142F260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Added Variables" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="1581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="1567">
   <si>
     <t>Variable (New)</t>
   </si>
@@ -2489,48 +2489,6 @@
   </si>
   <si>
     <t>Specify other type of skin damage</t>
-  </si>
-  <si>
-    <t>follow_eq5d</t>
-  </si>
-  <si>
-    <t>EQ-5D-5L SCORE</t>
-  </si>
-  <si>
-    <t>Is the EQ-5D-5L being assessed for this patient to capture quality of life data?</t>
-  </si>
-  <si>
-    <t>follow_eq5d_walking</t>
-  </si>
-  <si>
-    <t>Do you have problems walking?</t>
-  </si>
-  <si>
-    <t>1, No problems | 2, Slight problems | 3, Moderate problems | 4, Severe problems | 5, Extreme problems</t>
-  </si>
-  <si>
-    <t>follow_eq5d_dressing</t>
-  </si>
-  <si>
-    <t>Do you have problems washing or dressing yourself?</t>
-  </si>
-  <si>
-    <t>follow_eq5d_activities</t>
-  </si>
-  <si>
-    <t>Do you have problems with your usual activities?</t>
-  </si>
-  <si>
-    <t>follow_eq5d_pain</t>
-  </si>
-  <si>
-    <t>Do you have pain or discomfort?</t>
-  </si>
-  <si>
-    <t>follow_eq5d_anxiety</t>
-  </si>
-  <si>
-    <t>Do you feel anxious or depressed?</t>
   </si>
   <si>
     <t>follow_barthel</t>
@@ -5128,10 +5086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E423"/>
+  <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11631,12 +11589,12 @@
         <v>829</v>
       </c>
       <c r="E409" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B410" t="s">
         <v>815</v>
@@ -11645,15 +11603,15 @@
         <v>823</v>
       </c>
       <c r="D410" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E410" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="B411" t="s">
         <v>815</v>
@@ -11662,15 +11620,15 @@
         <v>823</v>
       </c>
       <c r="D411" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E411" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B412" t="s">
         <v>815</v>
@@ -11679,197 +11637,95 @@
         <v>823</v>
       </c>
       <c r="D412" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="E412" t="s">
-        <v>827</v>
+        <v>839</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="B413" t="s">
         <v>815</v>
       </c>
       <c r="C413" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="D413" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E413" t="s">
-        <v>14</v>
+        <v>839</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B414" t="s">
         <v>815</v>
       </c>
       <c r="C414" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="D414" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="E414" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B415" t="s">
         <v>815</v>
       </c>
       <c r="C415" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="D415" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E415" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B416" t="s">
         <v>815</v>
       </c>
       <c r="C416" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="D416" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E416" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B417" t="s">
         <v>815</v>
       </c>
       <c r="C417" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="D417" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E417" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>851</v>
-      </c>
-      <c r="B418" t="s">
-        <v>815</v>
-      </c>
-      <c r="C418" t="s">
-        <v>837</v>
-      </c>
-      <c r="D418" t="s">
-        <v>852</v>
-      </c>
-      <c r="E418" t="s">
         <v>853</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>854</v>
-      </c>
-      <c r="B419" t="s">
-        <v>815</v>
-      </c>
-      <c r="C419" t="s">
-        <v>837</v>
-      </c>
-      <c r="D419" t="s">
-        <v>855</v>
-      </c>
-      <c r="E419" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>856</v>
-      </c>
-      <c r="B420" t="s">
-        <v>815</v>
-      </c>
-      <c r="C420" t="s">
-        <v>837</v>
-      </c>
-      <c r="D420" t="s">
-        <v>857</v>
-      </c>
-      <c r="E420" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>859</v>
-      </c>
-      <c r="B421" t="s">
-        <v>815</v>
-      </c>
-      <c r="C421" t="s">
-        <v>837</v>
-      </c>
-      <c r="D421" t="s">
-        <v>860</v>
-      </c>
-      <c r="E421" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>862</v>
-      </c>
-      <c r="B422" t="s">
-        <v>815</v>
-      </c>
-      <c r="C422" t="s">
-        <v>837</v>
-      </c>
-      <c r="D422" t="s">
-        <v>863</v>
-      </c>
-      <c r="E422" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>865</v>
-      </c>
-      <c r="B423" t="s">
-        <v>815</v>
-      </c>
-      <c r="C423" t="s">
-        <v>837</v>
-      </c>
-      <c r="D423" t="s">
-        <v>866</v>
-      </c>
-      <c r="E423" t="s">
-        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -11895,24 +11751,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>868</v>
+        <v>854</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>871</v>
+        <v>857</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -11921,12 +11777,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>874</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -11935,18 +11791,18 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>876</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -11957,21 +11813,21 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="D5" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -11980,12 +11836,12 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -11994,12 +11850,12 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -12008,7 +11864,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -12016,7 +11872,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -12025,7 +11881,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -12033,7 +11889,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -12042,7 +11898,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -12050,7 +11906,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -12059,7 +11915,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -12067,7 +11923,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -12076,15 +11932,15 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="E12" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -12093,12 +11949,12 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -12107,7 +11963,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -12115,7 +11971,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -12124,7 +11980,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -12132,7 +11988,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -12141,15 +11997,15 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="E16" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -12158,12 +12014,12 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -12172,7 +12028,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -12180,7 +12036,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -12189,7 +12045,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -12197,7 +12053,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -12206,7 +12062,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -12214,7 +12070,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -12223,15 +12079,15 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="E21" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -12240,12 +12096,12 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -12254,7 +12110,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -12262,7 +12118,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -12271,7 +12127,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -12279,7 +12135,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -12288,15 +12144,15 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="E25" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -12305,12 +12161,12 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -12319,7 +12175,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -12327,7 +12183,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -12336,15 +12192,15 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
       <c r="E28" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -12353,7 +12209,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -12361,7 +12217,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>930</v>
+        <v>916</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -12370,12 +12226,12 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>931</v>
+        <v>917</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -12384,15 +12240,15 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>933</v>
+        <v>919</v>
       </c>
       <c r="E31" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>934</v>
+        <v>920</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -12401,15 +12257,15 @@
         <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>935</v>
+        <v>921</v>
       </c>
       <c r="E32" t="s">
-        <v>936</v>
+        <v>922</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -12418,12 +12274,12 @@
         <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>938</v>
+        <v>924</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>939</v>
+        <v>925</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -12435,12 +12291,12 @@
         <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>940</v>
+        <v>926</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>941</v>
+        <v>927</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -12449,7 +12305,7 @@
         <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>942</v>
+        <v>928</v>
       </c>
       <c r="E35" t="s">
         <v>93</v>
@@ -12457,7 +12313,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>943</v>
+        <v>929</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -12466,7 +12322,7 @@
         <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>944</v>
+        <v>930</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -12474,7 +12330,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>945</v>
+        <v>931</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -12483,7 +12339,7 @@
         <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>946</v>
+        <v>932</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -12491,7 +12347,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>947</v>
+        <v>933</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -12500,7 +12356,7 @@
         <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>948</v>
+        <v>934</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -12508,7 +12364,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -12517,7 +12373,7 @@
         <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -12525,7 +12381,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>951</v>
+        <v>937</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -12534,7 +12390,7 @@
         <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -12542,16 +12398,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>953</v>
+        <v>939</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D41" t="s">
-        <v>955</v>
+        <v>941</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -12559,75 +12415,75 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>956</v>
+        <v>942</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D42" t="s">
-        <v>957</v>
+        <v>943</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>958</v>
+        <v>944</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D43" t="s">
-        <v>959</v>
+        <v>945</v>
       </c>
       <c r="E43" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>961</v>
+        <v>947</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D44" t="s">
-        <v>962</v>
+        <v>948</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D45" t="s">
-        <v>964</v>
+        <v>950</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>965</v>
+        <v>951</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D46" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -12635,47 +12491,47 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D47" t="s">
-        <v>966</v>
+        <v>952</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D48" t="s">
         <v>129</v>
       </c>
       <c r="E48" t="s">
-        <v>969</v>
+        <v>955</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D49" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -12683,30 +12539,30 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D50" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D51" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -12714,30 +12570,30 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D52" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D53" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -12745,27 +12601,27 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D54" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D55" t="s">
         <v>138</v>
@@ -12776,13 +12632,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D56" t="s">
         <v>138</v>
@@ -12790,16 +12646,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D57" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -12807,44 +12663,44 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D58" t="s">
         <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D59" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D60" t="s">
         <v>145</v>
@@ -12852,47 +12708,47 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D61" t="s">
         <v>147</v>
       </c>
       <c r="E61" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D62" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D63" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -12900,44 +12756,44 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D64" t="s">
         <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D65" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D66" t="s">
         <v>145</v>
@@ -12945,16 +12801,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D67" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -12962,21 +12818,21 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="D68" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -12985,12 +12841,12 @@
         <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -12999,12 +12855,12 @@
         <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -13013,12 +12869,12 @@
         <v>166</v>
       </c>
       <c r="D71" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -13027,12 +12883,12 @@
         <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -13041,12 +12897,12 @@
         <v>166</v>
       </c>
       <c r="D73" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -13055,7 +12911,7 @@
         <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -13063,7 +12919,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -13072,18 +12928,18 @@
         <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D76" t="s">
         <v>380</v>
@@ -13094,44 +12950,44 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D77" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="E77" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D78" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D79" t="s">
         <v>402</v>
@@ -13142,16 +12998,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D80" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="E80" t="s">
         <v>405</v>
@@ -13159,30 +13015,30 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D81" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D82" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -13190,13 +13046,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D83" t="s">
         <v>398</v>
@@ -13207,16 +13063,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D84" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -13224,16 +13080,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D85" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -13241,13 +13097,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D86" t="s">
         <v>224</v>
@@ -13258,30 +13114,30 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D87" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D88" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -13289,16 +13145,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D89" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -13306,16 +13162,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D90" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -13323,13 +13179,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D91" t="s">
         <v>413</v>
@@ -13340,16 +13196,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D92" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -13357,27 +13213,27 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D93" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D94" t="s">
         <v>443</v>
@@ -13388,13 +13244,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D95" t="s">
         <v>459</v>
@@ -13405,13 +13261,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D96" t="s">
         <v>463</v>
@@ -13422,13 +13278,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D97" t="s">
         <v>469</v>
@@ -13439,13 +13295,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D98" t="s">
         <v>473</v>
@@ -13456,30 +13312,30 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D99" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1055</v>
+        <v>1041</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D100" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -13487,30 +13343,30 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1057</v>
+        <v>1043</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D101" t="s">
-        <v>1058</v>
+        <v>1044</v>
       </c>
       <c r="E101" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D102" t="s">
         <v>480</v>
@@ -13521,13 +13377,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D103" t="s">
         <v>482</v>
@@ -13538,13 +13394,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1062</v>
+        <v>1048</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="D104" t="s">
         <v>486</v>
@@ -13555,13 +13411,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1063</v>
+        <v>1049</v>
       </c>
       <c r="B105" t="s">
         <v>310</v>
       </c>
       <c r="C105" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D105" t="s">
         <v>380</v>
@@ -13572,30 +13428,30 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1064</v>
+        <v>1050</v>
       </c>
       <c r="B106" t="s">
         <v>310</v>
       </c>
       <c r="C106" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D106" t="s">
         <v>383</v>
       </c>
       <c r="E106" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1065</v>
+        <v>1051</v>
       </c>
       <c r="B107" t="s">
         <v>310</v>
       </c>
       <c r="C107" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D107" t="s">
         <v>386</v>
@@ -13603,13 +13459,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1066</v>
+        <v>1052</v>
       </c>
       <c r="B108" t="s">
         <v>310</v>
       </c>
       <c r="C108" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D108" t="s">
         <v>402</v>
@@ -13620,16 +13476,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1067</v>
+        <v>1053</v>
       </c>
       <c r="B109" t="s">
         <v>310</v>
       </c>
       <c r="C109" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D109" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="E109" t="s">
         <v>405</v>
@@ -13637,30 +13493,30 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="B110" t="s">
         <v>310</v>
       </c>
       <c r="C110" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D110" t="s">
-        <v>1069</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1070</v>
+        <v>1056</v>
       </c>
       <c r="B111" t="s">
         <v>310</v>
       </c>
       <c r="C111" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D111" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
@@ -13668,13 +13524,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>1071</v>
+        <v>1057</v>
       </c>
       <c r="B112" t="s">
         <v>310</v>
       </c>
       <c r="C112" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="D112" t="s">
         <v>398</v>
@@ -13685,7 +13541,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>1072</v>
+        <v>1058</v>
       </c>
       <c r="B113" t="s">
         <v>310</v>
@@ -13694,21 +13550,21 @@
         <v>311</v>
       </c>
       <c r="D113" t="s">
-        <v>1073</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="B114" t="s">
         <v>310</v>
       </c>
       <c r="C114" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D114" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
@@ -13716,16 +13572,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="B115" t="s">
         <v>310</v>
       </c>
       <c r="C115" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D115" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
@@ -13733,16 +13589,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1077</v>
+        <v>1063</v>
       </c>
       <c r="B116" t="s">
         <v>310</v>
       </c>
       <c r="C116" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D116" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -13750,16 +13606,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="B117" t="s">
         <v>310</v>
       </c>
       <c r="C117" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D117" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
@@ -13767,13 +13623,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>1079</v>
+        <v>1065</v>
       </c>
       <c r="B118" t="s">
         <v>310</v>
       </c>
       <c r="C118" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D118" t="s">
         <v>413</v>
@@ -13784,16 +13640,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="B119" t="s">
         <v>310</v>
       </c>
       <c r="C119" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D119" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
@@ -13801,27 +13657,27 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="B120" t="s">
         <v>310</v>
       </c>
       <c r="C120" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D120" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1082</v>
+        <v>1068</v>
       </c>
       <c r="B121" t="s">
         <v>310</v>
       </c>
       <c r="C121" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D121" t="s">
         <v>443</v>
@@ -13832,13 +13688,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1083</v>
+        <v>1069</v>
       </c>
       <c r="B122" t="s">
         <v>310</v>
       </c>
       <c r="C122" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D122" t="s">
         <v>459</v>
@@ -13849,13 +13705,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="B123" t="s">
         <v>310</v>
       </c>
       <c r="C123" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D123" t="s">
         <v>463</v>
@@ -13866,13 +13722,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1085</v>
+        <v>1071</v>
       </c>
       <c r="B124" t="s">
         <v>310</v>
       </c>
       <c r="C124" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D124" t="s">
         <v>469</v>
@@ -13883,13 +13739,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>1086</v>
+        <v>1072</v>
       </c>
       <c r="B125" t="s">
         <v>310</v>
       </c>
       <c r="C125" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D125" t="s">
         <v>473</v>
@@ -13900,30 +13756,30 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="B126" t="s">
         <v>310</v>
       </c>
       <c r="C126" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D126" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="B127" t="s">
         <v>310</v>
       </c>
       <c r="C127" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D127" t="s">
-        <v>1056</v>
+        <v>1042</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
@@ -13931,30 +13787,30 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="B128" t="s">
         <v>310</v>
       </c>
       <c r="C128" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D128" t="s">
-        <v>1090</v>
+        <v>1076</v>
       </c>
       <c r="E128" t="s">
-        <v>1059</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1091</v>
+        <v>1077</v>
       </c>
       <c r="B129" t="s">
         <v>310</v>
       </c>
       <c r="C129" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D129" t="s">
         <v>480</v>
@@ -13965,13 +13821,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="B130" t="s">
         <v>310</v>
       </c>
       <c r="C130" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D130" t="s">
         <v>482</v>
@@ -13982,13 +13838,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="B131" t="s">
         <v>310</v>
       </c>
       <c r="C131" t="s">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="D131" t="s">
         <v>486</v>
@@ -13999,7 +13855,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="B132" t="s">
         <v>310</v>
@@ -14008,7 +13864,7 @@
         <v>494</v>
       </c>
       <c r="D132" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -14016,7 +13872,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="B133" t="s">
         <v>310</v>
@@ -14025,7 +13881,7 @@
         <v>494</v>
       </c>
       <c r="D133" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="E133" t="s">
         <v>496</v>
@@ -14033,7 +13889,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="B134" t="s">
         <v>310</v>
@@ -14042,12 +13898,12 @@
         <v>494</v>
       </c>
       <c r="D134" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="B135" t="s">
         <v>310</v>
@@ -14056,7 +13912,7 @@
         <v>494</v>
       </c>
       <c r="D135" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="E135" t="s">
         <v>496</v>
@@ -14064,7 +13920,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="B136" t="s">
         <v>310</v>
@@ -14073,12 +13929,12 @@
         <v>494</v>
       </c>
       <c r="D136" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="B137" t="s">
         <v>310</v>
@@ -14087,7 +13943,7 @@
         <v>494</v>
       </c>
       <c r="D137" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="E137" t="s">
         <v>496</v>
@@ -14095,7 +13951,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="B138" t="s">
         <v>310</v>
@@ -14104,12 +13960,12 @@
         <v>494</v>
       </c>
       <c r="D138" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="B139" t="s">
         <v>310</v>
@@ -14118,7 +13974,7 @@
         <v>494</v>
       </c>
       <c r="D139" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="E139" t="s">
         <v>496</v>
@@ -14126,7 +13982,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="B140" t="s">
         <v>310</v>
@@ -14135,12 +13991,12 @@
         <v>494</v>
       </c>
       <c r="D140" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="B141" t="s">
         <v>310</v>
@@ -14149,7 +14005,7 @@
         <v>494</v>
       </c>
       <c r="D141" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="E141" t="s">
         <v>496</v>
@@ -14157,7 +14013,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="B142" t="s">
         <v>310</v>
@@ -14166,12 +14022,12 @@
         <v>494</v>
       </c>
       <c r="D142" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
       <c r="B143" t="s">
         <v>310</v>
@@ -14180,7 +14036,7 @@
         <v>494</v>
       </c>
       <c r="D143" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
       <c r="E143" t="s">
         <v>496</v>
@@ -14188,7 +14044,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>1118</v>
+        <v>1104</v>
       </c>
       <c r="B144" t="s">
         <v>310</v>
@@ -14197,7 +14053,7 @@
         <v>494</v>
       </c>
       <c r="D144" t="s">
-        <v>1119</v>
+        <v>1105</v>
       </c>
       <c r="E144" t="s">
         <v>496</v>
@@ -14205,7 +14061,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1120</v>
+        <v>1106</v>
       </c>
       <c r="B145" t="s">
         <v>310</v>
@@ -14214,7 +14070,7 @@
         <v>494</v>
       </c>
       <c r="D145" t="s">
-        <v>1121</v>
+        <v>1107</v>
       </c>
       <c r="E145" t="s">
         <v>496</v>
@@ -14222,7 +14078,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1122</v>
+        <v>1108</v>
       </c>
       <c r="B146" t="s">
         <v>310</v>
@@ -14231,7 +14087,7 @@
         <v>494</v>
       </c>
       <c r="D146" t="s">
-        <v>1123</v>
+        <v>1109</v>
       </c>
       <c r="E146" t="s">
         <v>496</v>
@@ -14239,7 +14095,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1124</v>
+        <v>1110</v>
       </c>
       <c r="B147" t="s">
         <v>310</v>
@@ -14248,12 +14104,12 @@
         <v>494</v>
       </c>
       <c r="D147" t="s">
-        <v>1125</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="B148" t="s">
         <v>310</v>
@@ -14262,7 +14118,7 @@
         <v>494</v>
       </c>
       <c r="D148" t="s">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="E148" t="s">
         <v>527</v>
@@ -14270,7 +14126,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="B149" t="s">
         <v>310</v>
@@ -14279,7 +14135,7 @@
         <v>494</v>
       </c>
       <c r="D149" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="E149" t="s">
         <v>527</v>
@@ -14287,7 +14143,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="B150" t="s">
         <v>310</v>
@@ -14296,7 +14152,7 @@
         <v>494</v>
       </c>
       <c r="D150" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="E150" t="s">
         <v>532</v>
@@ -14304,7 +14160,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="B151" t="s">
         <v>310</v>
@@ -14313,7 +14169,7 @@
         <v>494</v>
       </c>
       <c r="D151" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="E151" t="s">
         <v>527</v>
@@ -14321,7 +14177,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="B152" t="s">
         <v>310</v>
@@ -14330,12 +14186,12 @@
         <v>494</v>
       </c>
       <c r="D152" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="B153" t="s">
         <v>310</v>
@@ -14344,15 +14200,15 @@
         <v>541</v>
       </c>
       <c r="D153" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="E153" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="B154" t="s">
         <v>310</v>
@@ -14361,12 +14217,12 @@
         <v>541</v>
       </c>
       <c r="D154" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="B155" t="s">
         <v>310</v>
@@ -14375,12 +14231,12 @@
         <v>541</v>
       </c>
       <c r="D155" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1143</v>
+        <v>1129</v>
       </c>
       <c r="B156" t="s">
         <v>310</v>
@@ -14389,12 +14245,12 @@
         <v>541</v>
       </c>
       <c r="D156" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="B157" t="s">
         <v>310</v>
@@ -14403,12 +14259,12 @@
         <v>541</v>
       </c>
       <c r="D157" t="s">
-        <v>1146</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="B158" t="s">
         <v>310</v>
@@ -14417,12 +14273,12 @@
         <v>541</v>
       </c>
       <c r="D158" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="B159" t="s">
         <v>310</v>
@@ -14431,7 +14287,7 @@
         <v>541</v>
       </c>
       <c r="D159" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="E159" t="s">
         <v>14</v>
@@ -14439,7 +14295,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="B160" t="s">
         <v>310</v>
@@ -14448,15 +14304,15 @@
         <v>541</v>
       </c>
       <c r="D160" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
       <c r="E160" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="B161" t="s">
         <v>310</v>
@@ -14473,7 +14329,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="B162" t="s">
         <v>310</v>
@@ -14485,12 +14341,12 @@
         <v>773</v>
       </c>
       <c r="E162" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="B163" t="s">
         <v>310</v>
@@ -14499,12 +14355,12 @@
         <v>541</v>
       </c>
       <c r="D163" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="B164" t="s">
         <v>310</v>
@@ -14521,7 +14377,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
       <c r="B165" t="s">
         <v>310</v>
@@ -14530,12 +14386,12 @@
         <v>541</v>
       </c>
       <c r="D165" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>1162</v>
+        <v>1148</v>
       </c>
       <c r="B166" t="s">
         <v>310</v>
@@ -14544,12 +14400,12 @@
         <v>577</v>
       </c>
       <c r="D166" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="B167" t="s">
         <v>310</v>
@@ -14558,12 +14414,12 @@
         <v>577</v>
       </c>
       <c r="D167" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="B168" t="s">
         <v>310</v>
@@ -14572,12 +14428,12 @@
         <v>577</v>
       </c>
       <c r="D168" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="B169" t="s">
         <v>310</v>
@@ -14586,12 +14442,12 @@
         <v>577</v>
       </c>
       <c r="D169" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="B170" t="s">
         <v>310</v>
@@ -14600,15 +14456,15 @@
         <v>577</v>
       </c>
       <c r="D170" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="E170" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="B171" t="s">
         <v>310</v>
@@ -14617,12 +14473,12 @@
         <v>577</v>
       </c>
       <c r="D171" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="B172" t="s">
         <v>310</v>
@@ -14631,12 +14487,12 @@
         <v>577</v>
       </c>
       <c r="D172" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="B173" t="s">
         <v>310</v>
@@ -14645,7 +14501,7 @@
         <v>577</v>
       </c>
       <c r="D173" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
@@ -14653,7 +14509,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="B174" t="s">
         <v>310</v>
@@ -14662,12 +14518,12 @@
         <v>577</v>
       </c>
       <c r="D174" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="B175" t="s">
         <v>310</v>
@@ -14676,15 +14532,15 @@
         <v>577</v>
       </c>
       <c r="D175" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="E175" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="B176" t="s">
         <v>310</v>
@@ -14693,15 +14549,15 @@
         <v>577</v>
       </c>
       <c r="D176" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="E176" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="B177" t="s">
         <v>310</v>
@@ -14710,7 +14566,7 @@
         <v>577</v>
       </c>
       <c r="D177" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="E177" t="s">
         <v>21</v>
@@ -14718,7 +14574,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="B178" t="s">
         <v>310</v>
@@ -14727,12 +14583,12 @@
         <v>577</v>
       </c>
       <c r="D178" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="B179" t="s">
         <v>310</v>
@@ -14741,12 +14597,12 @@
         <v>577</v>
       </c>
       <c r="D179" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="B180" t="s">
         <v>310</v>
@@ -14755,12 +14611,12 @@
         <v>577</v>
       </c>
       <c r="D180" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="B181" t="s">
         <v>310</v>
@@ -14769,12 +14625,12 @@
         <v>577</v>
       </c>
       <c r="D181" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="B182" t="s">
         <v>310</v>
@@ -14783,12 +14639,12 @@
         <v>577</v>
       </c>
       <c r="D182" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="B183" t="s">
         <v>310</v>
@@ -14797,12 +14653,12 @@
         <v>577</v>
       </c>
       <c r="D183" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="B184" t="s">
         <v>310</v>
@@ -14811,15 +14667,15 @@
         <v>577</v>
       </c>
       <c r="D184" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="E184" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="B185" t="s">
         <v>310</v>
@@ -14828,12 +14684,12 @@
         <v>577</v>
       </c>
       <c r="D185" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="B186" t="s">
         <v>310</v>
@@ -14842,7 +14698,7 @@
         <v>617</v>
       </c>
       <c r="D186" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="E186" t="s">
         <v>14</v>
@@ -14850,7 +14706,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="B187" t="s">
         <v>310</v>
@@ -14859,7 +14715,7 @@
         <v>617</v>
       </c>
       <c r="D187" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="E187" t="s">
         <v>619</v>
@@ -14867,7 +14723,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="B188" t="s">
         <v>621</v>
@@ -14876,15 +14732,15 @@
         <v>622</v>
       </c>
       <c r="D188" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
       <c r="E188" t="s">
-        <v>960</v>
+        <v>946</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>1211</v>
+        <v>1197</v>
       </c>
       <c r="B189" t="s">
         <v>621</v>
@@ -14893,15 +14749,15 @@
         <v>622</v>
       </c>
       <c r="D189" t="s">
-        <v>1212</v>
+        <v>1198</v>
       </c>
       <c r="E189" t="s">
-        <v>1213</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>1214</v>
+        <v>1200</v>
       </c>
       <c r="B190" t="s">
         <v>621</v>
@@ -14910,15 +14766,15 @@
         <v>622</v>
       </c>
       <c r="D190" t="s">
-        <v>1215</v>
+        <v>1201</v>
       </c>
       <c r="E190" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>1217</v>
+        <v>1203</v>
       </c>
       <c r="B191" t="s">
         <v>621</v>
@@ -14930,12 +14786,12 @@
         <v>623</v>
       </c>
       <c r="E191" t="s">
-        <v>1218</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>1219</v>
+        <v>1205</v>
       </c>
       <c r="B192" t="s">
         <v>621</v>
@@ -14944,15 +14800,15 @@
         <v>622</v>
       </c>
       <c r="D192" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
       <c r="E192" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>1222</v>
+        <v>1208</v>
       </c>
       <c r="B193" t="s">
         <v>621</v>
@@ -14961,29 +14817,29 @@
         <v>622</v>
       </c>
       <c r="D193" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="E193" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>1225</v>
+        <v>1211</v>
       </c>
       <c r="B194" t="s">
-        <v>1226</v>
+        <v>1212</v>
       </c>
       <c r="C194" t="s">
-        <v>1227</v>
+        <v>1213</v>
       </c>
       <c r="D194" t="s">
-        <v>1228</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>1229</v>
+        <v>1215</v>
       </c>
       <c r="B195" t="s">
         <v>646</v>
@@ -14995,12 +14851,12 @@
         <v>648</v>
       </c>
       <c r="E195" t="s">
-        <v>1230</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="B196" t="s">
         <v>651</v>
@@ -15009,12 +14865,12 @@
         <v>652</v>
       </c>
       <c r="D196" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
       <c r="B197" t="s">
         <v>651</v>
@@ -15023,12 +14879,12 @@
         <v>652</v>
       </c>
       <c r="D197" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="B198" t="s">
         <v>651</v>
@@ -15037,12 +14893,12 @@
         <v>682</v>
       </c>
       <c r="D198" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
       <c r="B199" t="s">
         <v>651</v>
@@ -15051,12 +14907,12 @@
         <v>682</v>
       </c>
       <c r="D199" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="B200" t="s">
         <v>651</v>
@@ -15065,7 +14921,7 @@
         <v>745</v>
       </c>
       <c r="D200" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
       <c r="E200" t="s">
         <v>14</v>
@@ -15073,7 +14929,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="B201" t="s">
         <v>651</v>
@@ -15082,12 +14938,12 @@
         <v>745</v>
       </c>
       <c r="D201" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="B202" t="s">
         <v>651</v>
@@ -15096,12 +14952,12 @@
         <v>745</v>
       </c>
       <c r="D202" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="B203" t="s">
         <v>651</v>
@@ -15110,12 +14966,12 @@
         <v>745</v>
       </c>
       <c r="D203" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="B204" t="s">
         <v>651</v>
@@ -15124,12 +14980,12 @@
         <v>745</v>
       </c>
       <c r="D204" t="s">
-        <v>1248</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
       <c r="B205" t="s">
         <v>651</v>
@@ -15138,12 +14994,12 @@
         <v>745</v>
       </c>
       <c r="D205" t="s">
-        <v>1250</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>1251</v>
+        <v>1237</v>
       </c>
       <c r="B206" t="s">
         <v>651</v>
@@ -15152,12 +15008,12 @@
         <v>745</v>
       </c>
       <c r="D206" t="s">
-        <v>1252</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>1253</v>
+        <v>1239</v>
       </c>
       <c r="B207" t="s">
         <v>651</v>
@@ -15166,12 +15022,12 @@
         <v>745</v>
       </c>
       <c r="D207" t="s">
-        <v>1254</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>1255</v>
+        <v>1241</v>
       </c>
       <c r="B208" t="s">
         <v>651</v>
@@ -15180,15 +15036,15 @@
         <v>745</v>
       </c>
       <c r="D208" t="s">
-        <v>1256</v>
+        <v>1242</v>
       </c>
       <c r="E208" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>1257</v>
+        <v>1243</v>
       </c>
       <c r="B209" t="s">
         <v>651</v>
@@ -15202,7 +15058,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>1258</v>
+        <v>1244</v>
       </c>
       <c r="B210" t="s">
         <v>651</v>
@@ -15216,7 +15072,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>1259</v>
+        <v>1245</v>
       </c>
       <c r="B211" t="s">
         <v>651</v>
@@ -15225,12 +15081,12 @@
         <v>745</v>
       </c>
       <c r="D211" t="s">
-        <v>1260</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>1261</v>
+        <v>1247</v>
       </c>
       <c r="B212" t="s">
         <v>651</v>
@@ -15244,7 +15100,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>1262</v>
+        <v>1248</v>
       </c>
       <c r="B213" t="s">
         <v>651</v>
@@ -15258,7 +15114,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1263</v>
+        <v>1249</v>
       </c>
       <c r="B214" t="s">
         <v>651</v>
@@ -15272,7 +15128,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>1264</v>
+        <v>1250</v>
       </c>
       <c r="B215" t="s">
         <v>651</v>
@@ -15289,7 +15145,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>1265</v>
+        <v>1251</v>
       </c>
       <c r="B216" t="s">
         <v>651</v>
@@ -15298,21 +15154,21 @@
         <v>745</v>
       </c>
       <c r="D216" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1266</v>
+        <v>1252</v>
       </c>
       <c r="B217" t="s">
         <v>651</v>
       </c>
       <c r="C217" t="s">
-        <v>1267</v>
+        <v>1253</v>
       </c>
       <c r="D217" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
       <c r="E217" t="s">
         <v>14</v>
@@ -15320,7 +15176,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="B218" t="s">
         <v>651</v>
@@ -15329,12 +15185,12 @@
         <v>801</v>
       </c>
       <c r="D218" t="s">
-        <v>1270</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="B219" t="s">
         <v>651</v>
@@ -15343,7 +15199,7 @@
         <v>801</v>
       </c>
       <c r="D219" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="E219" t="s">
         <v>805</v>
@@ -15351,7 +15207,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="B220" t="s">
         <v>815</v>
@@ -15363,12 +15219,12 @@
         <v>817</v>
       </c>
       <c r="E220" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="B221" t="s">
         <v>815</v>
@@ -15377,12 +15233,12 @@
         <v>816</v>
       </c>
       <c r="D221" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="B222" t="s">
         <v>815</v>
@@ -15391,12 +15247,12 @@
         <v>816</v>
       </c>
       <c r="D222" t="s">
-        <v>1278</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="B223" t="s">
         <v>815</v>
@@ -15405,12 +15261,12 @@
         <v>816</v>
       </c>
       <c r="D223" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
       <c r="B224" t="s">
         <v>815</v>
@@ -15419,12 +15275,12 @@
         <v>816</v>
       </c>
       <c r="D224" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
       <c r="B225" t="s">
         <v>815</v>
@@ -15433,12 +15289,12 @@
         <v>816</v>
       </c>
       <c r="D225" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1285</v>
+        <v>1271</v>
       </c>
       <c r="B226" t="s">
         <v>815</v>
@@ -15447,12 +15303,12 @@
         <v>816</v>
       </c>
       <c r="D226" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="B227" t="s">
         <v>815</v>
@@ -15461,7 +15317,7 @@
         <v>816</v>
       </c>
       <c r="D227" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -15488,24 +15344,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1292</v>
+        <v>1278</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
       <c r="B2" t="s">
         <v>671</v>
@@ -15519,7 +15375,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1295</v>
+        <v>1281</v>
       </c>
       <c r="B3" t="s">
         <v>558</v>
@@ -15528,7 +15384,7 @@
         <v>556</v>
       </c>
       <c r="D3" t="s">
-        <v>1156</v>
+        <v>1142</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -15536,30 +15392,30 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1296</v>
+        <v>1282</v>
       </c>
       <c r="B4" t="s">
-        <v>1297</v>
+        <v>1283</v>
       </c>
       <c r="C4" t="s">
-        <v>1298</v>
+        <v>1284</v>
       </c>
       <c r="D4" t="s">
-        <v>1299</v>
+        <v>1285</v>
       </c>
       <c r="E4" t="s">
-        <v>1300</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1301</v>
+        <v>1287</v>
       </c>
       <c r="B5" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
       <c r="C5" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -15570,13 +15426,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
       <c r="B6" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="C6" t="s">
-        <v>1305</v>
+        <v>1291</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -15584,13 +15440,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1306</v>
+        <v>1292</v>
       </c>
       <c r="B7" t="s">
-        <v>1307</v>
+        <v>1293</v>
       </c>
       <c r="C7" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -15598,44 +15454,44 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="B8" t="s">
-        <v>1310</v>
+        <v>1296</v>
       </c>
       <c r="C8" t="s">
-        <v>1310</v>
+        <v>1296</v>
       </c>
       <c r="D8" t="s">
-        <v>1311</v>
+        <v>1297</v>
       </c>
       <c r="E8" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1313</v>
+        <v>1299</v>
       </c>
       <c r="B9" t="s">
-        <v>1314</v>
+        <v>1300</v>
       </c>
       <c r="C9" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="D9" t="s">
-        <v>1316</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
       <c r="B10" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="C10" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -15643,13 +15499,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1318</v>
+        <v>1304</v>
       </c>
       <c r="B11" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
       <c r="C11" t="s">
-        <v>1320</v>
+        <v>1306</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -15657,30 +15513,30 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="B12" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
       <c r="C12" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="D12" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="E12" t="s">
-        <v>1325</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1326</v>
+        <v>1312</v>
       </c>
       <c r="B13" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
       <c r="C13" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -15691,13 +15547,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
       <c r="B14" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
       <c r="C14" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -15705,27 +15561,27 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
       <c r="B15" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="C15" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="D15" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="B16" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="C16" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -15733,27 +15589,27 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
       <c r="B17" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="C17" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D17" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
       <c r="E17" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
       <c r="B18" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
       <c r="C18" t="s">
         <v>141</v>
@@ -15764,13 +15620,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="B19" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
       <c r="C19" t="s">
-        <v>1268</v>
+        <v>1254</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -15778,16 +15634,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
       <c r="B20" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="C20" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="D20" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -15795,13 +15651,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
       <c r="B21" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="C21" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -15809,13 +15665,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
       <c r="B22" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="C22" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -15823,13 +15679,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="B23" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="C23" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -15837,13 +15693,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="B24" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
       <c r="C24" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -15851,27 +15707,27 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="B25" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="C25" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="D25" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="B26" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="C26" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -15879,13 +15735,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="B27" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="C27" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -15893,44 +15749,44 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="B28" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="C28" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="D28" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1368</v>
+        <v>1354</v>
       </c>
       <c r="B29" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="C29" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="D29" t="s">
-        <v>1370</v>
+        <v>1356</v>
       </c>
       <c r="E29" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
       <c r="B30" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="C30" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
       <c r="E30" t="s">
         <v>669</v>
@@ -15938,30 +15794,30 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
       <c r="B31" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
       <c r="C31" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
       <c r="D31" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
       <c r="E31" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="B32" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="C32" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -15969,13 +15825,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
       <c r="B33" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
       <c r="C33" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="E33" t="s">
         <v>14</v>
@@ -15983,13 +15839,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="B34" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="C34" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -15997,30 +15853,30 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="B35" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="C35" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="D35" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="E35" t="s">
-        <v>1325</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="B36" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
       <c r="C36" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="E36" t="s">
         <v>669</v>
@@ -16028,30 +15884,30 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="B37" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
       <c r="C37" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
       <c r="D37" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="E37" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="B38" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="C38" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -16059,13 +15915,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="B39" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="C39" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -16073,27 +15929,27 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="B40" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="C40" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="E40" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="B41" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="C41" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -16101,44 +15957,44 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
       <c r="B42" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
       <c r="C42" t="s">
         <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
       <c r="B43" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="C43" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
       <c r="D43" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
       <c r="E43" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="B44" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="C44" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -16146,27 +16002,27 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="B45" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="C45" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
       <c r="E45" t="s">
-        <v>1316</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="B46" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="C46" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
       <c r="E46" t="s">
         <v>669</v>
@@ -16174,27 +16030,27 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="B47" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="C47" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
       <c r="E47" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
       <c r="B48" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="C48" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -16202,13 +16058,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="B49" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="C49" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -16216,13 +16072,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="B50" t="s">
-        <v>1427</v>
+        <v>1413</v>
       </c>
       <c r="C50" t="s">
-        <v>1428</v>
+        <v>1414</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -16230,13 +16086,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
       <c r="B51" t="s">
-        <v>1430</v>
+        <v>1416</v>
       </c>
       <c r="C51" t="s">
-        <v>1431</v>
+        <v>1417</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -16244,13 +16100,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
       <c r="B52" t="s">
-        <v>1433</v>
+        <v>1419</v>
       </c>
       <c r="C52" t="s">
-        <v>1434</v>
+        <v>1420</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -16258,13 +16114,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
       <c r="B53" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="C53" t="s">
-        <v>1436</v>
+        <v>1422</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -16272,13 +16128,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1437</v>
+        <v>1423</v>
       </c>
       <c r="B54" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="C54" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -16286,13 +16142,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
       <c r="B55" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="C55" t="s">
-        <v>1439</v>
+        <v>1425</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -16300,13 +16156,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
       <c r="B56" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
       <c r="C56" t="s">
-        <v>1441</v>
+        <v>1427</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -16314,7 +16170,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1442</v>
+        <v>1428</v>
       </c>
       <c r="B57" t="s">
         <v>567</v>
@@ -16331,13 +16187,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1443</v>
+        <v>1429</v>
       </c>
       <c r="B58" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="C58" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
@@ -16352,7 +16208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16362,682 +16218,682 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1444</v>
+        <v>1430</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1445</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1446</v>
+        <v>1432</v>
       </c>
       <c r="B2" t="s">
-        <v>1447</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1448</v>
+        <v>1434</v>
       </c>
       <c r="B3" t="s">
-        <v>1449</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1450</v>
+        <v>1436</v>
       </c>
       <c r="B4" t="s">
-        <v>1451</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1452</v>
+        <v>1438</v>
       </c>
       <c r="B5" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1454</v>
+        <v>1440</v>
       </c>
       <c r="B6" t="s">
-        <v>1455</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1456</v>
+        <v>1442</v>
       </c>
       <c r="B7" t="s">
-        <v>1457</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1458</v>
+        <v>1444</v>
       </c>
       <c r="B8" t="s">
-        <v>1459</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1460</v>
+        <v>1446</v>
       </c>
       <c r="B9" t="s">
-        <v>1461</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1462</v>
+        <v>1448</v>
       </c>
       <c r="B10" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="B11" t="s">
-        <v>1465</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1466</v>
+        <v>1452</v>
       </c>
       <c r="B12" t="s">
-        <v>1467</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1468</v>
+        <v>1454</v>
       </c>
       <c r="B13" t="s">
-        <v>1469</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1470</v>
+        <v>1456</v>
       </c>
       <c r="B14" t="s">
-        <v>1471</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
       <c r="B15" t="s">
-        <v>1473</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1474</v>
+        <v>1460</v>
       </c>
       <c r="B16" t="s">
-        <v>1475</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1476</v>
+        <v>1462</v>
       </c>
       <c r="B17" t="s">
-        <v>1477</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1478</v>
+        <v>1464</v>
       </c>
       <c r="B18" t="s">
-        <v>1479</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1480</v>
+        <v>1466</v>
       </c>
       <c r="B19" t="s">
-        <v>1481</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1482</v>
+        <v>1468</v>
       </c>
       <c r="B20" t="s">
-        <v>1483</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1484</v>
+        <v>1470</v>
       </c>
       <c r="B21" t="s">
-        <v>1485</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1486</v>
+        <v>1472</v>
       </c>
       <c r="B22" t="s">
-        <v>1487</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1488</v>
+        <v>1474</v>
       </c>
       <c r="B23" t="s">
-        <v>1489</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1490</v>
+        <v>1476</v>
       </c>
       <c r="B24" t="s">
-        <v>1491</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1492</v>
+        <v>1478</v>
       </c>
       <c r="B25" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1493</v>
+        <v>1479</v>
       </c>
       <c r="B26" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1494</v>
+        <v>1480</v>
       </c>
       <c r="B27" t="s">
-        <v>1440</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1495</v>
+        <v>1481</v>
       </c>
       <c r="B28" t="s">
-        <v>1438</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="B29" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
       <c r="B30" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
       <c r="B31" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1497</v>
+        <v>1483</v>
       </c>
       <c r="B32" t="s">
-        <v>1496</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1499</v>
+        <v>1485</v>
       </c>
       <c r="B33" t="s">
-        <v>1498</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1501</v>
+        <v>1487</v>
       </c>
       <c r="B34" t="s">
-        <v>1500</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1502</v>
+        <v>1488</v>
       </c>
       <c r="B35" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1503</v>
+        <v>1489</v>
       </c>
       <c r="B36" t="s">
-        <v>1504</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1505</v>
+        <v>1491</v>
       </c>
       <c r="B37" t="s">
-        <v>1506</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1507</v>
+        <v>1493</v>
       </c>
       <c r="B38" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1508</v>
+        <v>1494</v>
       </c>
       <c r="B39" t="s">
-        <v>1509</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="B40" t="s">
-        <v>1435</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1511</v>
+        <v>1497</v>
       </c>
       <c r="B41" t="s">
-        <v>1512</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1513</v>
+        <v>1499</v>
       </c>
       <c r="B42" t="s">
-        <v>1514</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1515</v>
+        <v>1501</v>
       </c>
       <c r="B43" t="s">
-        <v>1516</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1517</v>
+        <v>1503</v>
       </c>
       <c r="B44" t="s">
-        <v>1518</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1519</v>
+        <v>1505</v>
       </c>
       <c r="B45" t="s">
-        <v>1520</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1521</v>
+        <v>1507</v>
       </c>
       <c r="B46" t="s">
-        <v>1522</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1523</v>
+        <v>1509</v>
       </c>
       <c r="B47" t="s">
-        <v>1524</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1525</v>
+        <v>1511</v>
       </c>
       <c r="B48" t="s">
-        <v>1526</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1527</v>
+        <v>1513</v>
       </c>
       <c r="B49" t="s">
-        <v>1528</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1529</v>
+        <v>1515</v>
       </c>
       <c r="B50" t="s">
-        <v>1530</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1531</v>
+        <v>1517</v>
       </c>
       <c r="B51" t="s">
-        <v>1532</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1533</v>
+        <v>1519</v>
       </c>
       <c r="B52" t="s">
-        <v>1534</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1535</v>
+        <v>1521</v>
       </c>
       <c r="B53" t="s">
-        <v>1536</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1537</v>
+        <v>1523</v>
       </c>
       <c r="B54" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1538</v>
+        <v>1524</v>
       </c>
       <c r="B55" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1539</v>
+        <v>1525</v>
       </c>
       <c r="B56" t="s">
-        <v>1306</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1540</v>
+        <v>1526</v>
       </c>
       <c r="B57" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1541</v>
+        <v>1527</v>
       </c>
       <c r="B58" t="s">
-        <v>1542</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1543</v>
+        <v>1529</v>
       </c>
       <c r="B59" t="s">
-        <v>1544</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1545</v>
+        <v>1531</v>
       </c>
       <c r="B60" t="s">
-        <v>1546</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1547</v>
+        <v>1533</v>
       </c>
       <c r="B61" t="s">
-        <v>1548</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1549</v>
+        <v>1535</v>
       </c>
       <c r="B62" t="s">
-        <v>1550</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1551</v>
+        <v>1537</v>
       </c>
       <c r="B63" t="s">
-        <v>1552</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1553</v>
+        <v>1539</v>
       </c>
       <c r="B64" t="s">
-        <v>1432</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1554</v>
+        <v>1540</v>
       </c>
       <c r="B65" t="s">
-        <v>1555</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1556</v>
+        <v>1542</v>
       </c>
       <c r="B66" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1557</v>
+        <v>1543</v>
       </c>
       <c r="B67" t="s">
-        <v>1429</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1558</v>
+        <v>1544</v>
       </c>
       <c r="B68" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1559</v>
+        <v>1545</v>
       </c>
       <c r="B69" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1560</v>
+        <v>1546</v>
       </c>
       <c r="B70" t="s">
-        <v>1561</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1562</v>
+        <v>1548</v>
       </c>
       <c r="B71" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1563</v>
+        <v>1549</v>
       </c>
       <c r="B72" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1564</v>
+        <v>1550</v>
       </c>
       <c r="B73" t="s">
-        <v>1565</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1566</v>
+        <v>1552</v>
       </c>
       <c r="B74" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1567</v>
+        <v>1553</v>
       </c>
       <c r="B75" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1568</v>
+        <v>1554</v>
       </c>
       <c r="B76" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1569</v>
+        <v>1555</v>
       </c>
       <c r="B77" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1570</v>
+        <v>1556</v>
       </c>
       <c r="B78" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1571</v>
+        <v>1557</v>
       </c>
       <c r="B79" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1572</v>
+        <v>1558</v>
       </c>
       <c r="B80" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1573</v>
+        <v>1559</v>
       </c>
       <c r="B81" t="s">
-        <v>1574</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1575</v>
+        <v>1561</v>
       </c>
       <c r="B82" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1576</v>
+        <v>1562</v>
       </c>
       <c r="B83" t="s">
-        <v>1577</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1578</v>
+        <v>1564</v>
       </c>
       <c r="B84" t="s">
-        <v>1318</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1579</v>
+        <v>1565</v>
       </c>
       <c r="B85" t="s">
-        <v>1580</v>
+        <v>1566</v>
       </c>
     </row>
   </sheetData>
